--- a/Templates/Monthly/02 - February 2017 L.xlsx
+++ b/Templates/Monthly/02 - February 2017 L.xlsx
@@ -561,17 +561,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -579,184 +591,172 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1028,7 +1028,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1039,7 +1039,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G32" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="S54" sqref="S54"/>
     </sheetView>
   </sheetViews>
@@ -1049,1814 +1049,1819 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
     </row>
     <row r="2" spans="1:16" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="str">
+      <c r="A2" s="62" t="str">
         <f ca="1">MID(MID(CELL("filename",A1),FIND("[",CELL("filename",A1))+1,FIND(".",CELL("filename",A1))-FIND("[",CELL("filename",A1))-1), 5, 20)</f>
-        <v>ays</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
+        <v xml:space="preserve"> February 2017 L</v>
+      </c>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
     </row>
     <row r="3" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="8" t="s">
+      <c r="A3" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="8" t="s">
+      <c r="C3" s="58"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8" t="s">
+      <c r="F3" s="58"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="6"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="8" t="s">
+      <c r="I3" s="58"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="6"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="8" t="s">
+      <c r="L3" s="58"/>
+      <c r="M3" s="60"/>
+      <c r="N3" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="O3" s="6"/>
-      <c r="P3" s="7"/>
+      <c r="O3" s="58"/>
+      <c r="P3" s="59"/>
     </row>
     <row r="4" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
-      <c r="B4" s="16" t="s">
+      <c r="A4" s="67"/>
+      <c r="B4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="H4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="I4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="18" t="s">
+      <c r="J4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="16" t="s">
+      <c r="K4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="17" t="s">
+      <c r="L4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="54" t="s">
+      <c r="M4" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="N4" s="16" t="s">
+      <c r="N4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="O4" s="17" t="s">
+      <c r="O4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="18" t="s">
+      <c r="P4" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="19">
+      <c r="A5" s="12">
         <v>1</v>
       </c>
-      <c r="B5" s="10">
-        <v>0</v>
-      </c>
-      <c r="C5" s="11">
-        <v>0</v>
-      </c>
-      <c r="D5" s="12">
+      <c r="B5" s="3">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5">
         <f>SUM(B5,C5)</f>
         <v>0</v>
       </c>
-      <c r="E5" s="21">
-        <v>0</v>
-      </c>
-      <c r="F5" s="22">
-        <v>0</v>
-      </c>
-      <c r="G5" s="23">
+      <c r="E5" s="14">
+        <v>0</v>
+      </c>
+      <c r="F5" s="15">
+        <v>0</v>
+      </c>
+      <c r="G5" s="16">
         <f>SUM(E5,F5)</f>
         <v>0</v>
       </c>
-      <c r="H5" s="10">
-        <v>0</v>
-      </c>
-      <c r="I5" s="11">
-        <v>0</v>
-      </c>
-      <c r="J5" s="12">
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0</v>
+      </c>
+      <c r="J5" s="5">
         <f>SUM(H5,I5)</f>
         <v>0</v>
       </c>
-      <c r="K5" s="21">
-        <v>0</v>
-      </c>
-      <c r="L5" s="22">
-        <v>0</v>
-      </c>
-      <c r="M5" s="55">
+      <c r="K5" s="14">
+        <v>0</v>
+      </c>
+      <c r="L5" s="15">
+        <v>0</v>
+      </c>
+      <c r="M5" s="38">
         <f>SUM(K5,L5)</f>
         <v>0</v>
       </c>
-      <c r="N5" s="59">
-        <v>0</v>
-      </c>
-      <c r="O5" s="30">
-        <v>0</v>
-      </c>
-      <c r="P5" s="60">
+      <c r="N5" s="42">
+        <v>0</v>
+      </c>
+      <c r="O5" s="23">
+        <v>0</v>
+      </c>
+      <c r="P5" s="43">
         <f>SUM(N5,O5)</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="20">
+      <c r="A6" s="13">
         <v>2</v>
       </c>
-      <c r="B6" s="13">
-        <v>0</v>
-      </c>
-      <c r="C6" s="14">
-        <v>0</v>
-      </c>
-      <c r="D6" s="15">
+      <c r="B6" s="6">
+        <v>0</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0</v>
+      </c>
+      <c r="D6" s="8">
         <f t="shared" ref="D6:D33" si="0">SUM(B6,C6)</f>
         <v>0</v>
       </c>
-      <c r="E6" s="24">
-        <v>0</v>
-      </c>
-      <c r="F6" s="25">
-        <v>0</v>
-      </c>
-      <c r="G6" s="26">
+      <c r="E6" s="17">
+        <v>0</v>
+      </c>
+      <c r="F6" s="18">
+        <v>0</v>
+      </c>
+      <c r="G6" s="19">
         <f t="shared" ref="G6:G33" si="1">SUM(E6,F6)</f>
         <v>0</v>
       </c>
-      <c r="H6" s="13">
-        <v>0</v>
-      </c>
-      <c r="I6" s="14">
-        <v>0</v>
-      </c>
-      <c r="J6" s="15">
+      <c r="H6" s="6">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="8">
         <f t="shared" ref="J6:J33" si="2">SUM(H6,I6)</f>
         <v>0</v>
       </c>
-      <c r="K6" s="24">
-        <v>0</v>
-      </c>
-      <c r="L6" s="25">
-        <v>0</v>
-      </c>
-      <c r="M6" s="56">
+      <c r="K6" s="17">
+        <v>0</v>
+      </c>
+      <c r="L6" s="18">
+        <v>0</v>
+      </c>
+      <c r="M6" s="39">
         <f t="shared" ref="M6:M33" si="3">SUM(K6,L6)</f>
         <v>0</v>
       </c>
-      <c r="N6" s="61">
-        <v>0</v>
-      </c>
-      <c r="O6" s="31">
-        <v>0</v>
-      </c>
-      <c r="P6" s="62">
+      <c r="N6" s="44">
+        <v>0</v>
+      </c>
+      <c r="O6" s="24">
+        <v>0</v>
+      </c>
+      <c r="P6" s="45">
         <f t="shared" ref="P6:P33" si="4">SUM(N6,O6)</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="20">
+      <c r="A7" s="13">
         <v>3</v>
       </c>
-      <c r="B7" s="13">
-        <v>0</v>
-      </c>
-      <c r="C7" s="14">
-        <v>0</v>
-      </c>
-      <c r="D7" s="15">
+      <c r="B7" s="6">
+        <v>0</v>
+      </c>
+      <c r="C7" s="7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E7" s="24">
-        <v>0</v>
-      </c>
-      <c r="F7" s="25">
-        <v>0</v>
-      </c>
-      <c r="G7" s="26">
+      <c r="E7" s="17">
+        <v>0</v>
+      </c>
+      <c r="F7" s="18">
+        <v>0</v>
+      </c>
+      <c r="G7" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H7" s="13">
-        <v>0</v>
-      </c>
-      <c r="I7" s="14">
-        <v>0</v>
-      </c>
-      <c r="J7" s="15">
+      <c r="H7" s="6">
+        <v>0</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K7" s="24">
-        <v>0</v>
-      </c>
-      <c r="L7" s="25">
-        <v>0</v>
-      </c>
-      <c r="M7" s="56">
+      <c r="K7" s="17">
+        <v>0</v>
+      </c>
+      <c r="L7" s="18">
+        <v>0</v>
+      </c>
+      <c r="M7" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N7" s="61">
-        <v>0</v>
-      </c>
-      <c r="O7" s="31">
-        <v>0</v>
-      </c>
-      <c r="P7" s="62">
+      <c r="N7" s="44">
+        <v>0</v>
+      </c>
+      <c r="O7" s="24">
+        <v>0</v>
+      </c>
+      <c r="P7" s="45">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="20">
+      <c r="A8" s="13">
         <v>4</v>
       </c>
-      <c r="B8" s="13">
-        <v>0</v>
-      </c>
-      <c r="C8" s="14">
-        <v>0</v>
-      </c>
-      <c r="D8" s="15">
+      <c r="B8" s="6">
+        <v>0</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0</v>
+      </c>
+      <c r="D8" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E8" s="24">
-        <v>0</v>
-      </c>
-      <c r="F8" s="25">
-        <v>0</v>
-      </c>
-      <c r="G8" s="26">
+      <c r="E8" s="17">
+        <v>0</v>
+      </c>
+      <c r="F8" s="18">
+        <v>0</v>
+      </c>
+      <c r="G8" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H8" s="13">
-        <v>0</v>
-      </c>
-      <c r="I8" s="14">
-        <v>0</v>
-      </c>
-      <c r="J8" s="15">
+      <c r="H8" s="6">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K8" s="24">
-        <v>0</v>
-      </c>
-      <c r="L8" s="25">
-        <v>0</v>
-      </c>
-      <c r="M8" s="56">
+      <c r="K8" s="17">
+        <v>0</v>
+      </c>
+      <c r="L8" s="18">
+        <v>0</v>
+      </c>
+      <c r="M8" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N8" s="61">
-        <v>0</v>
-      </c>
-      <c r="O8" s="31">
-        <v>0</v>
-      </c>
-      <c r="P8" s="62">
+      <c r="N8" s="44">
+        <v>0</v>
+      </c>
+      <c r="O8" s="24">
+        <v>0</v>
+      </c>
+      <c r="P8" s="45">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="20">
+      <c r="A9" s="13">
         <v>5</v>
       </c>
-      <c r="B9" s="13">
-        <v>0</v>
-      </c>
-      <c r="C9" s="14">
-        <v>0</v>
-      </c>
-      <c r="D9" s="15">
+      <c r="B9" s="6">
+        <v>0</v>
+      </c>
+      <c r="C9" s="7">
+        <v>0</v>
+      </c>
+      <c r="D9" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E9" s="24">
-        <v>0</v>
-      </c>
-      <c r="F9" s="25">
-        <v>0</v>
-      </c>
-      <c r="G9" s="26">
+      <c r="E9" s="17">
+        <v>0</v>
+      </c>
+      <c r="F9" s="18">
+        <v>0</v>
+      </c>
+      <c r="G9" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H9" s="13">
-        <v>0</v>
-      </c>
-      <c r="I9" s="14">
-        <v>0</v>
-      </c>
-      <c r="J9" s="15">
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
+      <c r="I9" s="7">
+        <v>0</v>
+      </c>
+      <c r="J9" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K9" s="24">
-        <v>0</v>
-      </c>
-      <c r="L9" s="25">
-        <v>0</v>
-      </c>
-      <c r="M9" s="56">
+      <c r="K9" s="17">
+        <v>0</v>
+      </c>
+      <c r="L9" s="18">
+        <v>0</v>
+      </c>
+      <c r="M9" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N9" s="61">
-        <v>0</v>
-      </c>
-      <c r="O9" s="31">
-        <v>0</v>
-      </c>
-      <c r="P9" s="62">
+      <c r="N9" s="44">
+        <v>0</v>
+      </c>
+      <c r="O9" s="24">
+        <v>0</v>
+      </c>
+      <c r="P9" s="45">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="20">
+      <c r="A10" s="13">
         <v>6</v>
       </c>
-      <c r="B10" s="13">
-        <v>0</v>
-      </c>
-      <c r="C10" s="14">
-        <v>0</v>
-      </c>
-      <c r="D10" s="15">
+      <c r="B10" s="6">
+        <v>0</v>
+      </c>
+      <c r="C10" s="7">
+        <v>0</v>
+      </c>
+      <c r="D10" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E10" s="24">
-        <v>0</v>
-      </c>
-      <c r="F10" s="25">
-        <v>0</v>
-      </c>
-      <c r="G10" s="26">
+      <c r="E10" s="17">
+        <v>0</v>
+      </c>
+      <c r="F10" s="18">
+        <v>0</v>
+      </c>
+      <c r="G10" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H10" s="13">
-        <v>0</v>
-      </c>
-      <c r="I10" s="14">
-        <v>0</v>
-      </c>
-      <c r="J10" s="15">
+      <c r="H10" s="6">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K10" s="24">
-        <v>0</v>
-      </c>
-      <c r="L10" s="25">
-        <v>0</v>
-      </c>
-      <c r="M10" s="56">
+      <c r="K10" s="17">
+        <v>0</v>
+      </c>
+      <c r="L10" s="18">
+        <v>0</v>
+      </c>
+      <c r="M10" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N10" s="61">
-        <v>0</v>
-      </c>
-      <c r="O10" s="31">
-        <v>0</v>
-      </c>
-      <c r="P10" s="62">
+      <c r="N10" s="44">
+        <v>0</v>
+      </c>
+      <c r="O10" s="24">
+        <v>0</v>
+      </c>
+      <c r="P10" s="45">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="20">
+      <c r="A11" s="13">
         <v>7</v>
       </c>
-      <c r="B11" s="13">
-        <v>0</v>
-      </c>
-      <c r="C11" s="14">
-        <v>0</v>
-      </c>
-      <c r="D11" s="15">
+      <c r="B11" s="6">
+        <v>0</v>
+      </c>
+      <c r="C11" s="7">
+        <v>0</v>
+      </c>
+      <c r="D11" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E11" s="24">
-        <v>0</v>
-      </c>
-      <c r="F11" s="25">
-        <v>0</v>
-      </c>
-      <c r="G11" s="26">
+      <c r="E11" s="17">
+        <v>0</v>
+      </c>
+      <c r="F11" s="18">
+        <v>0</v>
+      </c>
+      <c r="G11" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H11" s="13">
-        <v>0</v>
-      </c>
-      <c r="I11" s="14">
-        <v>0</v>
-      </c>
-      <c r="J11" s="15">
+      <c r="H11" s="6">
+        <v>0</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0</v>
+      </c>
+      <c r="J11" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K11" s="24">
-        <v>0</v>
-      </c>
-      <c r="L11" s="25">
-        <v>0</v>
-      </c>
-      <c r="M11" s="56">
+      <c r="K11" s="17">
+        <v>0</v>
+      </c>
+      <c r="L11" s="18">
+        <v>0</v>
+      </c>
+      <c r="M11" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N11" s="61">
-        <v>0</v>
-      </c>
-      <c r="O11" s="31">
-        <v>0</v>
-      </c>
-      <c r="P11" s="62">
+      <c r="N11" s="44">
+        <v>0</v>
+      </c>
+      <c r="O11" s="24">
+        <v>0</v>
+      </c>
+      <c r="P11" s="45">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="20">
+      <c r="A12" s="13">
         <v>8</v>
       </c>
-      <c r="B12" s="13">
-        <v>0</v>
-      </c>
-      <c r="C12" s="14">
-        <v>0</v>
-      </c>
-      <c r="D12" s="15">
+      <c r="B12" s="6">
+        <v>0</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0</v>
+      </c>
+      <c r="D12" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E12" s="24">
-        <v>0</v>
-      </c>
-      <c r="F12" s="25">
-        <v>0</v>
-      </c>
-      <c r="G12" s="26">
+      <c r="E12" s="17">
+        <v>0</v>
+      </c>
+      <c r="F12" s="18">
+        <v>0</v>
+      </c>
+      <c r="G12" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H12" s="13">
-        <v>0</v>
-      </c>
-      <c r="I12" s="14">
-        <v>0</v>
-      </c>
-      <c r="J12" s="15">
+      <c r="H12" s="6">
+        <v>0</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0</v>
+      </c>
+      <c r="J12" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K12" s="24">
-        <v>0</v>
-      </c>
-      <c r="L12" s="25">
-        <v>0</v>
-      </c>
-      <c r="M12" s="56">
+      <c r="K12" s="17">
+        <v>0</v>
+      </c>
+      <c r="L12" s="18">
+        <v>0</v>
+      </c>
+      <c r="M12" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N12" s="61">
-        <v>0</v>
-      </c>
-      <c r="O12" s="31">
-        <v>0</v>
-      </c>
-      <c r="P12" s="62">
+      <c r="N12" s="44">
+        <v>0</v>
+      </c>
+      <c r="O12" s="24">
+        <v>0</v>
+      </c>
+      <c r="P12" s="45">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="20">
+      <c r="A13" s="13">
         <v>9</v>
       </c>
-      <c r="B13" s="13">
-        <v>0</v>
-      </c>
-      <c r="C13" s="14">
-        <v>0</v>
-      </c>
-      <c r="D13" s="15">
+      <c r="B13" s="6">
+        <v>0</v>
+      </c>
+      <c r="C13" s="7">
+        <v>0</v>
+      </c>
+      <c r="D13" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E13" s="24">
-        <v>0</v>
-      </c>
-      <c r="F13" s="25">
-        <v>0</v>
-      </c>
-      <c r="G13" s="26">
+      <c r="E13" s="17">
+        <v>0</v>
+      </c>
+      <c r="F13" s="18">
+        <v>0</v>
+      </c>
+      <c r="G13" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H13" s="13">
-        <v>0</v>
-      </c>
-      <c r="I13" s="14">
-        <v>0</v>
-      </c>
-      <c r="J13" s="15">
+      <c r="H13" s="6">
+        <v>0</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0</v>
+      </c>
+      <c r="J13" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K13" s="24">
-        <v>0</v>
-      </c>
-      <c r="L13" s="25">
-        <v>0</v>
-      </c>
-      <c r="M13" s="56">
+      <c r="K13" s="17">
+        <v>0</v>
+      </c>
+      <c r="L13" s="18">
+        <v>0</v>
+      </c>
+      <c r="M13" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N13" s="61">
-        <v>0</v>
-      </c>
-      <c r="O13" s="31">
-        <v>0</v>
-      </c>
-      <c r="P13" s="62">
+      <c r="N13" s="44">
+        <v>0</v>
+      </c>
+      <c r="O13" s="24">
+        <v>0</v>
+      </c>
+      <c r="P13" s="45">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="20">
+      <c r="A14" s="13">
         <v>10</v>
       </c>
-      <c r="B14" s="13">
-        <v>0</v>
-      </c>
-      <c r="C14" s="14">
-        <v>0</v>
-      </c>
-      <c r="D14" s="15">
+      <c r="B14" s="6">
+        <v>0</v>
+      </c>
+      <c r="C14" s="7">
+        <v>0</v>
+      </c>
+      <c r="D14" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E14" s="24">
-        <v>0</v>
-      </c>
-      <c r="F14" s="25">
-        <v>0</v>
-      </c>
-      <c r="G14" s="26">
+      <c r="E14" s="17">
+        <v>0</v>
+      </c>
+      <c r="F14" s="18">
+        <v>0</v>
+      </c>
+      <c r="G14" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H14" s="13">
-        <v>0</v>
-      </c>
-      <c r="I14" s="14">
-        <v>0</v>
-      </c>
-      <c r="J14" s="15">
+      <c r="H14" s="6">
+        <v>0</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0</v>
+      </c>
+      <c r="J14" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K14" s="24">
-        <v>0</v>
-      </c>
-      <c r="L14" s="25">
-        <v>0</v>
-      </c>
-      <c r="M14" s="56">
+      <c r="K14" s="17">
+        <v>0</v>
+      </c>
+      <c r="L14" s="18">
+        <v>0</v>
+      </c>
+      <c r="M14" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N14" s="61">
-        <v>0</v>
-      </c>
-      <c r="O14" s="31">
-        <v>0</v>
-      </c>
-      <c r="P14" s="62">
+      <c r="N14" s="44">
+        <v>0</v>
+      </c>
+      <c r="O14" s="24">
+        <v>0</v>
+      </c>
+      <c r="P14" s="45">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="20">
+      <c r="A15" s="13">
         <v>11</v>
       </c>
-      <c r="B15" s="13">
-        <v>0</v>
-      </c>
-      <c r="C15" s="14">
-        <v>0</v>
-      </c>
-      <c r="D15" s="15">
+      <c r="B15" s="6">
+        <v>0</v>
+      </c>
+      <c r="C15" s="7">
+        <v>0</v>
+      </c>
+      <c r="D15" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E15" s="24">
-        <v>0</v>
-      </c>
-      <c r="F15" s="25">
-        <v>0</v>
-      </c>
-      <c r="G15" s="26">
+      <c r="E15" s="17">
+        <v>0</v>
+      </c>
+      <c r="F15" s="18">
+        <v>0</v>
+      </c>
+      <c r="G15" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H15" s="13">
-        <v>0</v>
-      </c>
-      <c r="I15" s="14">
-        <v>0</v>
-      </c>
-      <c r="J15" s="15">
+      <c r="H15" s="6">
+        <v>0</v>
+      </c>
+      <c r="I15" s="7">
+        <v>0</v>
+      </c>
+      <c r="J15" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K15" s="24">
-        <v>0</v>
-      </c>
-      <c r="L15" s="25">
-        <v>0</v>
-      </c>
-      <c r="M15" s="56">
+      <c r="K15" s="17">
+        <v>0</v>
+      </c>
+      <c r="L15" s="18">
+        <v>0</v>
+      </c>
+      <c r="M15" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N15" s="61">
-        <v>0</v>
-      </c>
-      <c r="O15" s="31">
-        <v>0</v>
-      </c>
-      <c r="P15" s="62">
+      <c r="N15" s="44">
+        <v>0</v>
+      </c>
+      <c r="O15" s="24">
+        <v>0</v>
+      </c>
+      <c r="P15" s="45">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="20">
+      <c r="A16" s="13">
         <v>12</v>
       </c>
-      <c r="B16" s="13">
-        <v>0</v>
-      </c>
-      <c r="C16" s="14">
-        <v>0</v>
-      </c>
-      <c r="D16" s="15">
+      <c r="B16" s="6">
+        <v>0</v>
+      </c>
+      <c r="C16" s="7">
+        <v>0</v>
+      </c>
+      <c r="D16" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E16" s="24">
-        <v>0</v>
-      </c>
-      <c r="F16" s="25">
-        <v>0</v>
-      </c>
-      <c r="G16" s="26">
+      <c r="E16" s="17">
+        <v>0</v>
+      </c>
+      <c r="F16" s="18">
+        <v>0</v>
+      </c>
+      <c r="G16" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H16" s="13">
-        <v>0</v>
-      </c>
-      <c r="I16" s="14">
-        <v>0</v>
-      </c>
-      <c r="J16" s="15">
+      <c r="H16" s="6">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K16" s="24">
-        <v>0</v>
-      </c>
-      <c r="L16" s="25">
-        <v>0</v>
-      </c>
-      <c r="M16" s="56">
+      <c r="K16" s="17">
+        <v>0</v>
+      </c>
+      <c r="L16" s="18">
+        <v>0</v>
+      </c>
+      <c r="M16" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N16" s="61">
-        <v>0</v>
-      </c>
-      <c r="O16" s="31">
-        <v>0</v>
-      </c>
-      <c r="P16" s="62">
+      <c r="N16" s="44">
+        <v>0</v>
+      </c>
+      <c r="O16" s="24">
+        <v>0</v>
+      </c>
+      <c r="P16" s="45">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="20">
+      <c r="A17" s="13">
         <v>13</v>
       </c>
-      <c r="B17" s="13">
-        <v>0</v>
-      </c>
-      <c r="C17" s="14">
-        <v>0</v>
-      </c>
-      <c r="D17" s="15">
+      <c r="B17" s="6">
+        <v>0</v>
+      </c>
+      <c r="C17" s="7">
+        <v>0</v>
+      </c>
+      <c r="D17" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E17" s="24">
-        <v>0</v>
-      </c>
-      <c r="F17" s="25">
-        <v>0</v>
-      </c>
-      <c r="G17" s="26">
+      <c r="E17" s="17">
+        <v>0</v>
+      </c>
+      <c r="F17" s="18">
+        <v>0</v>
+      </c>
+      <c r="G17" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H17" s="13">
-        <v>0</v>
-      </c>
-      <c r="I17" s="14">
-        <v>0</v>
-      </c>
-      <c r="J17" s="15">
+      <c r="H17" s="6">
+        <v>0</v>
+      </c>
+      <c r="I17" s="7">
+        <v>0</v>
+      </c>
+      <c r="J17" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K17" s="24">
-        <v>0</v>
-      </c>
-      <c r="L17" s="25">
-        <v>0</v>
-      </c>
-      <c r="M17" s="56">
+      <c r="K17" s="17">
+        <v>0</v>
+      </c>
+      <c r="L17" s="18">
+        <v>0</v>
+      </c>
+      <c r="M17" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N17" s="61">
-        <v>0</v>
-      </c>
-      <c r="O17" s="31">
-        <v>0</v>
-      </c>
-      <c r="P17" s="62">
+      <c r="N17" s="44">
+        <v>0</v>
+      </c>
+      <c r="O17" s="24">
+        <v>0</v>
+      </c>
+      <c r="P17" s="45">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="20">
+      <c r="A18" s="13">
         <v>14</v>
       </c>
-      <c r="B18" s="13">
-        <v>0</v>
-      </c>
-      <c r="C18" s="14">
-        <v>0</v>
-      </c>
-      <c r="D18" s="15">
+      <c r="B18" s="6">
+        <v>0</v>
+      </c>
+      <c r="C18" s="7">
+        <v>0</v>
+      </c>
+      <c r="D18" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E18" s="24">
-        <v>0</v>
-      </c>
-      <c r="F18" s="25">
-        <v>0</v>
-      </c>
-      <c r="G18" s="26">
+      <c r="E18" s="17">
+        <v>0</v>
+      </c>
+      <c r="F18" s="18">
+        <v>0</v>
+      </c>
+      <c r="G18" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H18" s="13">
-        <v>0</v>
-      </c>
-      <c r="I18" s="14">
-        <v>0</v>
-      </c>
-      <c r="J18" s="15">
+      <c r="H18" s="6">
+        <v>0</v>
+      </c>
+      <c r="I18" s="7">
+        <v>0</v>
+      </c>
+      <c r="J18" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K18" s="24">
-        <v>0</v>
-      </c>
-      <c r="L18" s="25">
-        <v>0</v>
-      </c>
-      <c r="M18" s="56">
+      <c r="K18" s="17">
+        <v>0</v>
+      </c>
+      <c r="L18" s="18">
+        <v>0</v>
+      </c>
+      <c r="M18" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N18" s="61">
-        <v>0</v>
-      </c>
-      <c r="O18" s="31">
-        <v>0</v>
-      </c>
-      <c r="P18" s="62">
+      <c r="N18" s="44">
+        <v>0</v>
+      </c>
+      <c r="O18" s="24">
+        <v>0</v>
+      </c>
+      <c r="P18" s="45">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="20">
+      <c r="A19" s="13">
         <v>15</v>
       </c>
-      <c r="B19" s="13">
-        <v>0</v>
-      </c>
-      <c r="C19" s="14">
-        <v>0</v>
-      </c>
-      <c r="D19" s="15">
+      <c r="B19" s="6">
+        <v>0</v>
+      </c>
+      <c r="C19" s="7">
+        <v>0</v>
+      </c>
+      <c r="D19" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E19" s="24">
-        <v>0</v>
-      </c>
-      <c r="F19" s="25">
-        <v>0</v>
-      </c>
-      <c r="G19" s="26">
+      <c r="E19" s="17">
+        <v>0</v>
+      </c>
+      <c r="F19" s="18">
+        <v>0</v>
+      </c>
+      <c r="G19" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H19" s="13">
-        <v>0</v>
-      </c>
-      <c r="I19" s="14">
-        <v>0</v>
-      </c>
-      <c r="J19" s="15">
+      <c r="H19" s="6">
+        <v>0</v>
+      </c>
+      <c r="I19" s="7">
+        <v>0</v>
+      </c>
+      <c r="J19" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K19" s="24">
-        <v>0</v>
-      </c>
-      <c r="L19" s="25">
-        <v>0</v>
-      </c>
-      <c r="M19" s="56">
+      <c r="K19" s="17">
+        <v>0</v>
+      </c>
+      <c r="L19" s="18">
+        <v>0</v>
+      </c>
+      <c r="M19" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N19" s="61">
-        <v>0</v>
-      </c>
-      <c r="O19" s="31">
-        <v>0</v>
-      </c>
-      <c r="P19" s="62">
+      <c r="N19" s="44">
+        <v>0</v>
+      </c>
+      <c r="O19" s="24">
+        <v>0</v>
+      </c>
+      <c r="P19" s="45">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="20">
+      <c r="A20" s="13">
         <v>16</v>
       </c>
-      <c r="B20" s="13">
-        <v>0</v>
-      </c>
-      <c r="C20" s="14">
-        <v>0</v>
-      </c>
-      <c r="D20" s="15">
+      <c r="B20" s="6">
+        <v>0</v>
+      </c>
+      <c r="C20" s="7">
+        <v>0</v>
+      </c>
+      <c r="D20" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E20" s="24">
-        <v>0</v>
-      </c>
-      <c r="F20" s="25">
-        <v>0</v>
-      </c>
-      <c r="G20" s="26">
+      <c r="E20" s="17">
+        <v>0</v>
+      </c>
+      <c r="F20" s="18">
+        <v>0</v>
+      </c>
+      <c r="G20" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H20" s="13">
-        <v>0</v>
-      </c>
-      <c r="I20" s="14">
-        <v>0</v>
-      </c>
-      <c r="J20" s="15">
+      <c r="H20" s="6">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0</v>
+      </c>
+      <c r="J20" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K20" s="24">
-        <v>0</v>
-      </c>
-      <c r="L20" s="25">
-        <v>0</v>
-      </c>
-      <c r="M20" s="56">
+      <c r="K20" s="17">
+        <v>0</v>
+      </c>
+      <c r="L20" s="18">
+        <v>0</v>
+      </c>
+      <c r="M20" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N20" s="61">
-        <v>0</v>
-      </c>
-      <c r="O20" s="31">
-        <v>0</v>
-      </c>
-      <c r="P20" s="62">
+      <c r="N20" s="44">
+        <v>0</v>
+      </c>
+      <c r="O20" s="24">
+        <v>0</v>
+      </c>
+      <c r="P20" s="45">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="20">
+      <c r="A21" s="13">
         <v>17</v>
       </c>
-      <c r="B21" s="13">
-        <v>0</v>
-      </c>
-      <c r="C21" s="14">
-        <v>0</v>
-      </c>
-      <c r="D21" s="15">
+      <c r="B21" s="6">
+        <v>0</v>
+      </c>
+      <c r="C21" s="7">
+        <v>0</v>
+      </c>
+      <c r="D21" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E21" s="24">
-        <v>0</v>
-      </c>
-      <c r="F21" s="25">
-        <v>0</v>
-      </c>
-      <c r="G21" s="26">
+      <c r="E21" s="17">
+        <v>0</v>
+      </c>
+      <c r="F21" s="18">
+        <v>0</v>
+      </c>
+      <c r="G21" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H21" s="13">
-        <v>0</v>
-      </c>
-      <c r="I21" s="14">
-        <v>0</v>
-      </c>
-      <c r="J21" s="15">
+      <c r="H21" s="6">
+        <v>0</v>
+      </c>
+      <c r="I21" s="7">
+        <v>0</v>
+      </c>
+      <c r="J21" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K21" s="24">
-        <v>0</v>
-      </c>
-      <c r="L21" s="25">
-        <v>0</v>
-      </c>
-      <c r="M21" s="56">
+      <c r="K21" s="17">
+        <v>0</v>
+      </c>
+      <c r="L21" s="18">
+        <v>0</v>
+      </c>
+      <c r="M21" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N21" s="61">
-        <v>0</v>
-      </c>
-      <c r="O21" s="31">
-        <v>0</v>
-      </c>
-      <c r="P21" s="62">
+      <c r="N21" s="44">
+        <v>0</v>
+      </c>
+      <c r="O21" s="24">
+        <v>0</v>
+      </c>
+      <c r="P21" s="45">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="20">
+      <c r="A22" s="13">
         <v>18</v>
       </c>
-      <c r="B22" s="13">
-        <v>0</v>
-      </c>
-      <c r="C22" s="14">
-        <v>0</v>
-      </c>
-      <c r="D22" s="15">
+      <c r="B22" s="6">
+        <v>0</v>
+      </c>
+      <c r="C22" s="7">
+        <v>0</v>
+      </c>
+      <c r="D22" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E22" s="24">
-        <v>0</v>
-      </c>
-      <c r="F22" s="25">
-        <v>0</v>
-      </c>
-      <c r="G22" s="26">
+      <c r="E22" s="17">
+        <v>0</v>
+      </c>
+      <c r="F22" s="18">
+        <v>0</v>
+      </c>
+      <c r="G22" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H22" s="13">
-        <v>0</v>
-      </c>
-      <c r="I22" s="14">
-        <v>0</v>
-      </c>
-      <c r="J22" s="15">
+      <c r="H22" s="6">
+        <v>0</v>
+      </c>
+      <c r="I22" s="7">
+        <v>0</v>
+      </c>
+      <c r="J22" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K22" s="24">
-        <v>0</v>
-      </c>
-      <c r="L22" s="25">
-        <v>0</v>
-      </c>
-      <c r="M22" s="56">
+      <c r="K22" s="17">
+        <v>0</v>
+      </c>
+      <c r="L22" s="18">
+        <v>0</v>
+      </c>
+      <c r="M22" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N22" s="61">
-        <v>0</v>
-      </c>
-      <c r="O22" s="31">
-        <v>0</v>
-      </c>
-      <c r="P22" s="62">
+      <c r="N22" s="44">
+        <v>0</v>
+      </c>
+      <c r="O22" s="24">
+        <v>0</v>
+      </c>
+      <c r="P22" s="45">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="20">
+      <c r="A23" s="13">
         <v>19</v>
       </c>
-      <c r="B23" s="13">
-        <v>0</v>
-      </c>
-      <c r="C23" s="14">
-        <v>0</v>
-      </c>
-      <c r="D23" s="15">
+      <c r="B23" s="6">
+        <v>0</v>
+      </c>
+      <c r="C23" s="7">
+        <v>0</v>
+      </c>
+      <c r="D23" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E23" s="24">
-        <v>0</v>
-      </c>
-      <c r="F23" s="25">
-        <v>0</v>
-      </c>
-      <c r="G23" s="26">
+      <c r="E23" s="17">
+        <v>0</v>
+      </c>
+      <c r="F23" s="18">
+        <v>0</v>
+      </c>
+      <c r="G23" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H23" s="13">
-        <v>0</v>
-      </c>
-      <c r="I23" s="14">
-        <v>0</v>
-      </c>
-      <c r="J23" s="15">
+      <c r="H23" s="6">
+        <v>0</v>
+      </c>
+      <c r="I23" s="7">
+        <v>0</v>
+      </c>
+      <c r="J23" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K23" s="24">
-        <v>0</v>
-      </c>
-      <c r="L23" s="25">
-        <v>0</v>
-      </c>
-      <c r="M23" s="56">
+      <c r="K23" s="17">
+        <v>0</v>
+      </c>
+      <c r="L23" s="18">
+        <v>0</v>
+      </c>
+      <c r="M23" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N23" s="61">
-        <v>0</v>
-      </c>
-      <c r="O23" s="31">
-        <v>0</v>
-      </c>
-      <c r="P23" s="62">
+      <c r="N23" s="44">
+        <v>0</v>
+      </c>
+      <c r="O23" s="24">
+        <v>0</v>
+      </c>
+      <c r="P23" s="45">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="20">
+      <c r="A24" s="13">
         <v>20</v>
       </c>
-      <c r="B24" s="13">
-        <v>0</v>
-      </c>
-      <c r="C24" s="14">
-        <v>0</v>
-      </c>
-      <c r="D24" s="15">
+      <c r="B24" s="6">
+        <v>0</v>
+      </c>
+      <c r="C24" s="7">
+        <v>0</v>
+      </c>
+      <c r="D24" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E24" s="24">
-        <v>0</v>
-      </c>
-      <c r="F24" s="25">
-        <v>0</v>
-      </c>
-      <c r="G24" s="26">
+      <c r="E24" s="17">
+        <v>0</v>
+      </c>
+      <c r="F24" s="18">
+        <v>0</v>
+      </c>
+      <c r="G24" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H24" s="13">
-        <v>0</v>
-      </c>
-      <c r="I24" s="14">
-        <v>0</v>
-      </c>
-      <c r="J24" s="15">
+      <c r="H24" s="6">
+        <v>0</v>
+      </c>
+      <c r="I24" s="7">
+        <v>0</v>
+      </c>
+      <c r="J24" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K24" s="24">
-        <v>0</v>
-      </c>
-      <c r="L24" s="25">
-        <v>0</v>
-      </c>
-      <c r="M24" s="56">
+      <c r="K24" s="17">
+        <v>0</v>
+      </c>
+      <c r="L24" s="18">
+        <v>0</v>
+      </c>
+      <c r="M24" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N24" s="61">
-        <v>0</v>
-      </c>
-      <c r="O24" s="31">
-        <v>0</v>
-      </c>
-      <c r="P24" s="62">
+      <c r="N24" s="44">
+        <v>0</v>
+      </c>
+      <c r="O24" s="24">
+        <v>0</v>
+      </c>
+      <c r="P24" s="45">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="20">
+      <c r="A25" s="13">
         <v>21</v>
       </c>
-      <c r="B25" s="13">
-        <v>0</v>
-      </c>
-      <c r="C25" s="14">
-        <v>0</v>
-      </c>
-      <c r="D25" s="15">
+      <c r="B25" s="6">
+        <v>0</v>
+      </c>
+      <c r="C25" s="7">
+        <v>0</v>
+      </c>
+      <c r="D25" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E25" s="24">
-        <v>0</v>
-      </c>
-      <c r="F25" s="25">
-        <v>0</v>
-      </c>
-      <c r="G25" s="26">
+      <c r="E25" s="17">
+        <v>0</v>
+      </c>
+      <c r="F25" s="18">
+        <v>0</v>
+      </c>
+      <c r="G25" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H25" s="13">
-        <v>0</v>
-      </c>
-      <c r="I25" s="14">
-        <v>0</v>
-      </c>
-      <c r="J25" s="15">
+      <c r="H25" s="6">
+        <v>0</v>
+      </c>
+      <c r="I25" s="7">
+        <v>0</v>
+      </c>
+      <c r="J25" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K25" s="24">
-        <v>0</v>
-      </c>
-      <c r="L25" s="25">
-        <v>0</v>
-      </c>
-      <c r="M25" s="56">
+      <c r="K25" s="17">
+        <v>0</v>
+      </c>
+      <c r="L25" s="18">
+        <v>0</v>
+      </c>
+      <c r="M25" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N25" s="61">
-        <v>0</v>
-      </c>
-      <c r="O25" s="31">
-        <v>0</v>
-      </c>
-      <c r="P25" s="62">
+      <c r="N25" s="44">
+        <v>0</v>
+      </c>
+      <c r="O25" s="24">
+        <v>0</v>
+      </c>
+      <c r="P25" s="45">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="20">
+      <c r="A26" s="13">
         <v>22</v>
       </c>
-      <c r="B26" s="13">
-        <v>0</v>
-      </c>
-      <c r="C26" s="14">
-        <v>0</v>
-      </c>
-      <c r="D26" s="15">
+      <c r="B26" s="6">
+        <v>0</v>
+      </c>
+      <c r="C26" s="7">
+        <v>0</v>
+      </c>
+      <c r="D26" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E26" s="24">
-        <v>0</v>
-      </c>
-      <c r="F26" s="25">
-        <v>0</v>
-      </c>
-      <c r="G26" s="26">
+      <c r="E26" s="17">
+        <v>0</v>
+      </c>
+      <c r="F26" s="18">
+        <v>0</v>
+      </c>
+      <c r="G26" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H26" s="13">
-        <v>0</v>
-      </c>
-      <c r="I26" s="14">
-        <v>0</v>
-      </c>
-      <c r="J26" s="15">
+      <c r="H26" s="6">
+        <v>0</v>
+      </c>
+      <c r="I26" s="7">
+        <v>0</v>
+      </c>
+      <c r="J26" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K26" s="24">
-        <v>0</v>
-      </c>
-      <c r="L26" s="25">
-        <v>0</v>
-      </c>
-      <c r="M26" s="56">
+      <c r="K26" s="17">
+        <v>0</v>
+      </c>
+      <c r="L26" s="18">
+        <v>0</v>
+      </c>
+      <c r="M26" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N26" s="61">
-        <v>0</v>
-      </c>
-      <c r="O26" s="31">
-        <v>0</v>
-      </c>
-      <c r="P26" s="62">
+      <c r="N26" s="44">
+        <v>0</v>
+      </c>
+      <c r="O26" s="24">
+        <v>0</v>
+      </c>
+      <c r="P26" s="45">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="20">
+      <c r="A27" s="13">
         <v>23</v>
       </c>
-      <c r="B27" s="13">
-        <v>0</v>
-      </c>
-      <c r="C27" s="14">
-        <v>0</v>
-      </c>
-      <c r="D27" s="15">
+      <c r="B27" s="6">
+        <v>0</v>
+      </c>
+      <c r="C27" s="7">
+        <v>0</v>
+      </c>
+      <c r="D27" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E27" s="24">
-        <v>0</v>
-      </c>
-      <c r="F27" s="25">
-        <v>0</v>
-      </c>
-      <c r="G27" s="26">
+      <c r="E27" s="17">
+        <v>0</v>
+      </c>
+      <c r="F27" s="18">
+        <v>0</v>
+      </c>
+      <c r="G27" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H27" s="13">
-        <v>0</v>
-      </c>
-      <c r="I27" s="14">
-        <v>0</v>
-      </c>
-      <c r="J27" s="15">
+      <c r="H27" s="6">
+        <v>0</v>
+      </c>
+      <c r="I27" s="7">
+        <v>0</v>
+      </c>
+      <c r="J27" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K27" s="24">
-        <v>0</v>
-      </c>
-      <c r="L27" s="25">
-        <v>0</v>
-      </c>
-      <c r="M27" s="56">
+      <c r="K27" s="17">
+        <v>0</v>
+      </c>
+      <c r="L27" s="18">
+        <v>0</v>
+      </c>
+      <c r="M27" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N27" s="61">
-        <v>0</v>
-      </c>
-      <c r="O27" s="31">
-        <v>0</v>
-      </c>
-      <c r="P27" s="62">
+      <c r="N27" s="44">
+        <v>0</v>
+      </c>
+      <c r="O27" s="24">
+        <v>0</v>
+      </c>
+      <c r="P27" s="45">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="20">
+      <c r="A28" s="13">
         <v>24</v>
       </c>
-      <c r="B28" s="13">
-        <v>0</v>
-      </c>
-      <c r="C28" s="14">
-        <v>0</v>
-      </c>
-      <c r="D28" s="15">
+      <c r="B28" s="6">
+        <v>0</v>
+      </c>
+      <c r="C28" s="7">
+        <v>0</v>
+      </c>
+      <c r="D28" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E28" s="24">
-        <v>0</v>
-      </c>
-      <c r="F28" s="25">
-        <v>0</v>
-      </c>
-      <c r="G28" s="26">
+      <c r="E28" s="17">
+        <v>0</v>
+      </c>
+      <c r="F28" s="18">
+        <v>0</v>
+      </c>
+      <c r="G28" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H28" s="13">
-        <v>0</v>
-      </c>
-      <c r="I28" s="14">
-        <v>0</v>
-      </c>
-      <c r="J28" s="15">
+      <c r="H28" s="6">
+        <v>0</v>
+      </c>
+      <c r="I28" s="7">
+        <v>0</v>
+      </c>
+      <c r="J28" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K28" s="24">
-        <v>0</v>
-      </c>
-      <c r="L28" s="25">
-        <v>0</v>
-      </c>
-      <c r="M28" s="56">
+      <c r="K28" s="17">
+        <v>0</v>
+      </c>
+      <c r="L28" s="18">
+        <v>0</v>
+      </c>
+      <c r="M28" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N28" s="61">
-        <v>0</v>
-      </c>
-      <c r="O28" s="31">
-        <v>0</v>
-      </c>
-      <c r="P28" s="62">
+      <c r="N28" s="44">
+        <v>0</v>
+      </c>
+      <c r="O28" s="24">
+        <v>0</v>
+      </c>
+      <c r="P28" s="45">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="20">
+      <c r="A29" s="13">
         <v>25</v>
       </c>
-      <c r="B29" s="13">
-        <v>0</v>
-      </c>
-      <c r="C29" s="14">
-        <v>0</v>
-      </c>
-      <c r="D29" s="15">
+      <c r="B29" s="6">
+        <v>0</v>
+      </c>
+      <c r="C29" s="7">
+        <v>0</v>
+      </c>
+      <c r="D29" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E29" s="24">
-        <v>0</v>
-      </c>
-      <c r="F29" s="25">
-        <v>0</v>
-      </c>
-      <c r="G29" s="26">
+      <c r="E29" s="17">
+        <v>0</v>
+      </c>
+      <c r="F29" s="18">
+        <v>0</v>
+      </c>
+      <c r="G29" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H29" s="13">
-        <v>0</v>
-      </c>
-      <c r="I29" s="14">
-        <v>0</v>
-      </c>
-      <c r="J29" s="15">
+      <c r="H29" s="6">
+        <v>0</v>
+      </c>
+      <c r="I29" s="7">
+        <v>0</v>
+      </c>
+      <c r="J29" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K29" s="24">
-        <v>0</v>
-      </c>
-      <c r="L29" s="25">
-        <v>0</v>
-      </c>
-      <c r="M29" s="56">
+      <c r="K29" s="17">
+        <v>0</v>
+      </c>
+      <c r="L29" s="18">
+        <v>0</v>
+      </c>
+      <c r="M29" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N29" s="61">
-        <v>0</v>
-      </c>
-      <c r="O29" s="31">
-        <v>0</v>
-      </c>
-      <c r="P29" s="62">
+      <c r="N29" s="44">
+        <v>0</v>
+      </c>
+      <c r="O29" s="24">
+        <v>0</v>
+      </c>
+      <c r="P29" s="45">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="20">
+      <c r="A30" s="13">
         <v>26</v>
       </c>
-      <c r="B30" s="13">
-        <v>0</v>
-      </c>
-      <c r="C30" s="14">
-        <v>0</v>
-      </c>
-      <c r="D30" s="15">
+      <c r="B30" s="6">
+        <v>0</v>
+      </c>
+      <c r="C30" s="7">
+        <v>0</v>
+      </c>
+      <c r="D30" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E30" s="24">
-        <v>0</v>
-      </c>
-      <c r="F30" s="25">
-        <v>0</v>
-      </c>
-      <c r="G30" s="26">
+      <c r="E30" s="17">
+        <v>0</v>
+      </c>
+      <c r="F30" s="18">
+        <v>0</v>
+      </c>
+      <c r="G30" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H30" s="13">
-        <v>0</v>
-      </c>
-      <c r="I30" s="14">
-        <v>0</v>
-      </c>
-      <c r="J30" s="15">
+      <c r="H30" s="6">
+        <v>0</v>
+      </c>
+      <c r="I30" s="7">
+        <v>0</v>
+      </c>
+      <c r="J30" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K30" s="24">
-        <v>0</v>
-      </c>
-      <c r="L30" s="25">
-        <v>0</v>
-      </c>
-      <c r="M30" s="56">
+      <c r="K30" s="17">
+        <v>0</v>
+      </c>
+      <c r="L30" s="18">
+        <v>0</v>
+      </c>
+      <c r="M30" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N30" s="61">
-        <v>0</v>
-      </c>
-      <c r="O30" s="31">
-        <v>0</v>
-      </c>
-      <c r="P30" s="62">
+      <c r="N30" s="44">
+        <v>0</v>
+      </c>
+      <c r="O30" s="24">
+        <v>0</v>
+      </c>
+      <c r="P30" s="45">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="20">
+      <c r="A31" s="13">
         <v>27</v>
       </c>
-      <c r="B31" s="13">
-        <v>0</v>
-      </c>
-      <c r="C31" s="14">
-        <v>0</v>
-      </c>
-      <c r="D31" s="15">
+      <c r="B31" s="6">
+        <v>0</v>
+      </c>
+      <c r="C31" s="7">
+        <v>0</v>
+      </c>
+      <c r="D31" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E31" s="24">
-        <v>0</v>
-      </c>
-      <c r="F31" s="25">
-        <v>0</v>
-      </c>
-      <c r="G31" s="26">
+      <c r="E31" s="17">
+        <v>0</v>
+      </c>
+      <c r="F31" s="18">
+        <v>0</v>
+      </c>
+      <c r="G31" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H31" s="13">
-        <v>0</v>
-      </c>
-      <c r="I31" s="14">
-        <v>0</v>
-      </c>
-      <c r="J31" s="15">
+      <c r="H31" s="6">
+        <v>0</v>
+      </c>
+      <c r="I31" s="7">
+        <v>0</v>
+      </c>
+      <c r="J31" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K31" s="24">
-        <v>0</v>
-      </c>
-      <c r="L31" s="25">
-        <v>0</v>
-      </c>
-      <c r="M31" s="56">
+      <c r="K31" s="17">
+        <v>0</v>
+      </c>
+      <c r="L31" s="18">
+        <v>0</v>
+      </c>
+      <c r="M31" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N31" s="61">
-        <v>0</v>
-      </c>
-      <c r="O31" s="31">
-        <v>0</v>
-      </c>
-      <c r="P31" s="62">
+      <c r="N31" s="44">
+        <v>0</v>
+      </c>
+      <c r="O31" s="24">
+        <v>0</v>
+      </c>
+      <c r="P31" s="45">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="27">
+      <c r="A32" s="20">
         <v>28</v>
       </c>
-      <c r="B32" s="13">
-        <v>0</v>
-      </c>
-      <c r="C32" s="14">
-        <v>0</v>
-      </c>
-      <c r="D32" s="15">
+      <c r="B32" s="6">
+        <v>0</v>
+      </c>
+      <c r="C32" s="7">
+        <v>0</v>
+      </c>
+      <c r="D32" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E32" s="24">
-        <v>0</v>
-      </c>
-      <c r="F32" s="25">
-        <v>0</v>
-      </c>
-      <c r="G32" s="26">
+      <c r="E32" s="17">
+        <v>0</v>
+      </c>
+      <c r="F32" s="18">
+        <v>0</v>
+      </c>
+      <c r="G32" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H32" s="13">
-        <v>0</v>
-      </c>
-      <c r="I32" s="14">
-        <v>0</v>
-      </c>
-      <c r="J32" s="15">
+      <c r="H32" s="6">
+        <v>0</v>
+      </c>
+      <c r="I32" s="7">
+        <v>0</v>
+      </c>
+      <c r="J32" s="8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K32" s="24">
-        <v>0</v>
-      </c>
-      <c r="L32" s="25">
-        <v>0</v>
-      </c>
-      <c r="M32" s="56">
+      <c r="K32" s="17">
+        <v>0</v>
+      </c>
+      <c r="L32" s="18">
+        <v>0</v>
+      </c>
+      <c r="M32" s="39">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N32" s="61">
-        <v>0</v>
-      </c>
-      <c r="O32" s="31">
-        <v>0</v>
-      </c>
-      <c r="P32" s="62">
+      <c r="N32" s="44">
+        <v>0</v>
+      </c>
+      <c r="O32" s="24">
+        <v>0</v>
+      </c>
+      <c r="P32" s="45">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="44">
+      <c r="A33" s="28">
         <v>29</v>
       </c>
-      <c r="B33" s="47">
-        <v>0</v>
-      </c>
-      <c r="C33" s="48">
-        <v>0</v>
-      </c>
-      <c r="D33" s="49">
+      <c r="B33" s="31">
+        <v>0</v>
+      </c>
+      <c r="C33" s="32">
+        <v>0</v>
+      </c>
+      <c r="D33" s="33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E33" s="50">
-        <v>0</v>
-      </c>
-      <c r="F33" s="51">
-        <v>0</v>
-      </c>
-      <c r="G33" s="52">
+      <c r="E33" s="34">
+        <v>0</v>
+      </c>
+      <c r="F33" s="35">
+        <v>0</v>
+      </c>
+      <c r="G33" s="36">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H33" s="47">
-        <v>0</v>
-      </c>
-      <c r="I33" s="48">
-        <v>0</v>
-      </c>
-      <c r="J33" s="49">
+      <c r="H33" s="31">
+        <v>0</v>
+      </c>
+      <c r="I33" s="32">
+        <v>0</v>
+      </c>
+      <c r="J33" s="33">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K33" s="50">
-        <v>0</v>
-      </c>
-      <c r="L33" s="51">
-        <v>0</v>
-      </c>
-      <c r="M33" s="57">
+      <c r="K33" s="34">
+        <v>0</v>
+      </c>
+      <c r="L33" s="35">
+        <v>0</v>
+      </c>
+      <c r="M33" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N33" s="63">
-        <v>0</v>
-      </c>
-      <c r="O33" s="32">
-        <v>0</v>
-      </c>
-      <c r="P33" s="64">
+      <c r="N33" s="46">
+        <v>0</v>
+      </c>
+      <c r="O33" s="25">
+        <v>0</v>
+      </c>
+      <c r="P33" s="47">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="28" t="s">
+      <c r="A34" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B34" s="66">
+      <c r="B34" s="49">
         <f t="shared" ref="B34:P34" si="5">SUM(B5:B33)</f>
         <v>0</v>
       </c>
-      <c r="C34" s="29">
+      <c r="C34" s="22">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="D34" s="67">
+      <c r="D34" s="50">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="E34" s="45">
+      <c r="E34" s="29">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="F34" s="46">
+      <c r="F34" s="30">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="G34" s="58">
+      <c r="G34" s="41">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="H34" s="66">
+      <c r="H34" s="49">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I34" s="29">
+      <c r="I34" s="22">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="J34" s="67">
+      <c r="J34" s="50">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="K34" s="66">
+      <c r="K34" s="49">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="L34" s="29">
+      <c r="L34" s="22">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M34" s="67">
+      <c r="M34" s="50">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="N34" s="65">
+      <c r="N34" s="48">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="O34" s="33">
+      <c r="O34" s="26">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="P34" s="34">
+      <c r="P34" s="27">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="35" t="s">
+      <c r="A35" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="36"/>
-      <c r="C35" s="36"/>
-      <c r="D35" s="37"/>
-      <c r="E35" s="38">
+      <c r="B35" s="52"/>
+      <c r="C35" s="52"/>
+      <c r="D35" s="53"/>
+      <c r="E35" s="63">
         <f>SUM(G34,J34)</f>
         <v>0</v>
       </c>
-      <c r="F35" s="39"/>
-      <c r="G35" s="40"/>
-      <c r="H35" s="35" t="s">
+      <c r="F35" s="64"/>
+      <c r="G35" s="65"/>
+      <c r="H35" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="I35" s="36"/>
-      <c r="J35" s="37"/>
-      <c r="K35" s="41">
+      <c r="I35" s="52"/>
+      <c r="J35" s="53"/>
+      <c r="K35" s="54">
         <f>SUM(J34,M34)</f>
         <v>0</v>
       </c>
-      <c r="L35" s="42"/>
-      <c r="M35" s="43"/>
-      <c r="N35" s="9"/>
-      <c r="O35" s="9"/>
-      <c r="P35" s="9"/>
+      <c r="L35" s="55"/>
+      <c r="M35" s="56"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A2:P2"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="A3:A4"/>
     <mergeCell ref="H35:J35"/>
     <mergeCell ref="K35:M35"/>
     <mergeCell ref="N3:P3"/>
@@ -2864,11 +2869,6 @@
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="H3:J3"/>
     <mergeCell ref="K3:M3"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A2:P2"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="A3:A4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="48" orientation="landscape" r:id="rId1"/>

--- a/Templates/Monthly/02 - February 2017 L.xlsx
+++ b/Templates/Monthly/02 - February 2017 L.xlsx
@@ -708,6 +708,12 @@
     <xf numFmtId="164" fontId="2" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -715,6 +721,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -737,27 +758,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1028,7 +1028,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1049,78 +1049,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
     </row>
     <row r="2" spans="1:16" s="1" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="62" t="str">
+      <c r="A2" s="52" t="str">
         <f ca="1">MID(MID(CELL("filename",A1),FIND("[",CELL("filename",A1))+1,FIND(".",CELL("filename",A1))-FIND("[",CELL("filename",A1))-1), 5, 20)</f>
         <v xml:space="preserve"> February 2017 L</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62"/>
-      <c r="O2" s="62"/>
-      <c r="P2" s="62"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
     </row>
     <row r="3" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="66" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="57" t="s">
+      <c r="A3" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="58"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="57" t="s">
+      <c r="C3" s="65"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="58"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="57" t="s">
+      <c r="F3" s="65"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="58"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="57" t="s">
+      <c r="I3" s="65"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="L3" s="58"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="57" t="s">
+      <c r="L3" s="65"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="O3" s="58"/>
-      <c r="P3" s="59"/>
+      <c r="O3" s="65"/>
+      <c r="P3" s="66"/>
     </row>
     <row r="4" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="67"/>
+      <c r="A4" s="60"/>
       <c r="B4" s="9" t="s">
         <v>6</v>
       </c>
@@ -2828,29 +2828,29 @@
       </c>
     </row>
     <row r="35" spans="1:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="51" t="s">
+      <c r="A35" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="52"/>
-      <c r="C35" s="52"/>
-      <c r="D35" s="53"/>
-      <c r="E35" s="63">
+      <c r="B35" s="54"/>
+      <c r="C35" s="54"/>
+      <c r="D35" s="55"/>
+      <c r="E35" s="56">
         <f>SUM(G34,J34)</f>
         <v>0</v>
       </c>
-      <c r="F35" s="64"/>
-      <c r="G35" s="65"/>
-      <c r="H35" s="51" t="s">
+      <c r="F35" s="57"/>
+      <c r="G35" s="58"/>
+      <c r="H35" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="I35" s="52"/>
-      <c r="J35" s="53"/>
-      <c r="K35" s="54">
+      <c r="I35" s="54"/>
+      <c r="J35" s="55"/>
+      <c r="K35" s="61">
         <f>SUM(J34,M34)</f>
         <v>0</v>
       </c>
-      <c r="L35" s="55"/>
-      <c r="M35" s="56"/>
+      <c r="L35" s="62"/>
+      <c r="M35" s="63"/>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
